--- a/data/documentation/spreadsheets/done/chaijs@chai.xlsx
+++ b/data/documentation/spreadsheets/done/chaijs@chai.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF1A0BAD-1B2F-484C-8F3D-D159D11760BC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95290050-30BF-44F9-A4C5-9C4EDEF1F4FA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="123">
   <si>
     <t>CF – Contribution flow</t>
   </si>
@@ -725,18 +725,18 @@
   <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B117" sqref="B117"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="35.796875" customWidth="1"/>
-    <col min="2" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="26" width="7.59765625" customWidth="1"/>
+    <col min="1" max="1" width="35.80859375" customWidth="1"/>
+    <col min="2" max="7" width="22.47265625" customWidth="1"/>
+    <col min="8" max="26" width="7.6171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -756,77 +756,77 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="100.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -834,12 +834,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
@@ -847,7 +847,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
@@ -855,7 +855,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
@@ -863,7 +863,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
@@ -871,12 +871,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -884,7 +884,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -892,7 +892,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -900,107 +900,107 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="129.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" ht="115.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7" t="s">
         <v>51</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7" t="s">
         <v>52</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7" t="s">
         <v>53</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7" t="s">
         <v>54</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="86.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7" t="s">
         <v>56</v>
       </c>
@@ -1056,7 +1056,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7" t="s">
         <v>57</v>
       </c>
@@ -1064,55 +1064,55 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B54" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B55" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="158.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E56" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B57" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E58" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B59" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7" t="s">
         <v>64</v>
       </c>
@@ -1120,26 +1120,20 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B61" t="s">
-        <v>122</v>
-      </c>
       <c r="G61" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B62" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>67</v>
       </c>
@@ -1147,18 +1141,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B64" t="s">
-        <v>122</v>
-      </c>
       <c r="G64" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="7" t="s">
         <v>69</v>
       </c>
@@ -1166,18 +1157,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B66" t="s">
-        <v>122</v>
-      </c>
       <c r="G66" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="7" t="s">
         <v>71</v>
       </c>
@@ -1185,18 +1173,15 @@
         <v>122</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B68" t="s">
-        <v>122</v>
-      </c>
       <c r="G68" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>73</v>
       </c>
@@ -1204,107 +1189,107 @@
         <v>122</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="7" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="7" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="7" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="7" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="7" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="7" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="7" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="7" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="7" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="7" t="s">
         <v>94</v>
       </c>
@@ -1312,27 +1297,27 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="7" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="7" t="s">
         <v>99</v>
       </c>
@@ -1340,7 +1325,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="7" t="s">
         <v>100</v>
       </c>
@@ -1348,7 +1333,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="7" t="s">
         <v>101</v>
       </c>
@@ -1356,7 +1341,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="7" t="s">
         <v>102</v>
       </c>
@@ -1364,7 +1349,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="7" t="s">
         <v>103</v>
       </c>
@@ -1372,12 +1357,12 @@
         <v>122</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="7" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="7" t="s">
         <v>105</v>
       </c>
@@ -1385,7 +1370,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="7" t="s">
         <v>106</v>
       </c>
@@ -1393,7 +1378,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="7" t="s">
         <v>107</v>
       </c>
@@ -1401,7 +1386,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="7" t="s">
         <v>108</v>
       </c>
@@ -1409,7 +1394,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="7" t="s">
         <v>109</v>
       </c>
@@ -1417,7 +1402,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="7" t="s">
         <v>110</v>
       </c>
@@ -1425,7 +1410,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="7" t="s">
         <v>111</v>
       </c>
@@ -1433,7 +1418,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="7" t="s">
         <v>112</v>
       </c>
@@ -1441,7 +1426,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="7" t="s">
         <v>113</v>
       </c>
@@ -1449,7 +1434,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="7" t="s">
         <v>114</v>
       </c>
@@ -1457,7 +1442,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="7" t="s">
         <v>115</v>
       </c>
@@ -1465,7 +1450,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="7" t="s">
         <v>116</v>
       </c>
@@ -1473,7 +1458,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="7" t="s">
         <v>117</v>
       </c>
@@ -1481,7 +1466,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="7" t="s">
         <v>118</v>
       </c>
@@ -1489,7 +1474,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="7" t="s">
         <v>119</v>
       </c>
@@ -1497,7 +1482,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="7" t="s">
         <v>120</v>
       </c>
@@ -1505,7 +1490,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="7" t="s">
         <v>121</v>
       </c>
